--- a/biology/Botanique/Hemerocallidaceae/Hemerocallidaceae.xlsx
+++ b/biology/Botanique/Hemerocallidaceae/Hemerocallidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hémérocallidacées regroupe des plantes monocotylédones. La circonscription est discutée : elle comprend environ vingt genres. Les mieux connus sont Hemerocallis et Phormium.
 C'est une famille cosmopolite qui rassemble en plus du genre Hemerocallis des espèces précédemment classées dans les Phormiacées.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Hemerocallis, qui vient du grec ἡμέρα / hemera, « jour », et καλός / kalos, « beauté ». En effet, les fleurs de la plupart des espèces de ce genre s'épanouissent à l'aube et se fanent au coucher du soleil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Hemerocallis, qui vient du grec ἡμέρα / hemera, « jour », et καλός / kalos, « beauté ». En effet, les fleurs de la plupart des espèces de ce genre s'épanouissent à l'aube et se fanent au coucher du soleil.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification classique, cette famille n'existe pas et ces plantes sont incluses dans les Liliacées.
-La classification phylogénétique APG (1998)[2] en a d'abord fait une famille appartenant à l'ordre des Asparagales.
-En classification phylogénétique APG II (2003)[3] cette famille est optionnelle, et ces plantes peuvent être incluses dans la famille Xanthorrhoeaceae.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille Xanthorrhoeaceae sous-famille Hemerocallidoideae.
-En classification phylogénétique APG IV (2016)[5], la famille des Asphodelaceae se substitue à la famille des Xanthorrhoeaceae.
+La classification phylogénétique APG (1998) en a d'abord fait une famille appartenant à l'ordre des Asparagales.
+En classification phylogénétique APG II (2003) cette famille est optionnelle, et ces plantes peuvent être incluses dans la famille Xanthorrhoeaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Xanthorrhoeaceae sous-famille Hemerocallidoideae.
+En classification phylogénétique APG IV (2016), la famille des Asphodelaceae se substitue à la famille des Xanthorrhoeaceae.
 </t>
         </is>
       </c>
